--- a/sprawko/wykres.xlsx
+++ b/sprawko/wykres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Study\pea_1\sprawko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40FA545-1084-4AF8-A67B-F24CC5405B43}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F1C2DE-CDDA-4D1B-9B10-A07943B91636}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{058C24B4-1DD1-4451-8E15-EBD23EF8CC4A}"/>
   </bookViews>
@@ -1374,9 +1374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10462ACE-39ED-4D3B-A9FF-C3A42460F0A6}">
   <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
